--- a/pm/Taavoni Todos.xlsx
+++ b/pm/Taavoni Todos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ta\taavoni\pm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>اولویت</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>مدیریت فایل های آپلود شده</t>
+  </si>
+  <si>
+    <t>کنترل کردن اندازه فایل قبل از آپلود</t>
   </si>
 </sst>
 </file>
@@ -127,13 +130,13 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -171,11 +174,11 @@
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" name="اولویت" dataDxfId="5"/>
-    <tableColumn id="6" name="سطح دوم" dataDxfId="0"/>
-    <tableColumn id="2" name="وضعیت" dataDxfId="4"/>
-    <tableColumn id="3" name="اقدام" dataDxfId="3"/>
+    <tableColumn id="6" name="سطح دوم" dataDxfId="4"/>
+    <tableColumn id="2" name="وضعیت" dataDxfId="3"/>
+    <tableColumn id="3" name="اقدام" dataDxfId="2"/>
     <tableColumn id="5" name="زیراقدام" dataDxfId="1"/>
-    <tableColumn id="4" name="توضیحات" dataDxfId="2"/>
+    <tableColumn id="4" name="توضیحات" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -444,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G9"/>
+  <dimension ref="B1:G10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -538,6 +541,9 @@
       <c r="C5" s="1">
         <v>1.4</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
@@ -599,6 +605,17 @@
       </c>
       <c r="F9" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
